--- a/src/main/resources/Example_Spreadsheet.xlsx
+++ b/src/main/resources/Example_Spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Test Description</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>**Failed Login**</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -393,78 +402,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -477,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
